--- a/Datos/Datos cantonales.xlsx
+++ b/Datos/Datos cantonales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Vivas\Desktop\Proyecto-4\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CC0C95-9AF0-452D-AC4F-8B2C5ACCF137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287E0640-F5EC-4F35-BDA0-974EE9E0FDEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{8B7F9B44-5C59-423C-988F-FAE4EDC42130}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$L$82</definedName>
     <definedName name="Cantones_de_Costa_Rica" localSheetId="0">Hoja1!$A$1:$E$82</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="94">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -329,6 +330,9 @@
   </si>
   <si>
     <t>casos</t>
+  </si>
+  <si>
+    <t>pob</t>
   </si>
 </sst>
 </file>
@@ -690,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{602A07B4-4E6A-4EF8-B479-B9928ECF3701}">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -702,14 +706,15 @@
     <col min="2" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -726,25 +731,28 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>87</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>88</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -761,25 +769,28 @@
         <v>6</v>
       </c>
       <c r="F2" s="3">
+        <v>19877</v>
+      </c>
+      <c r="G2" s="3">
         <v>50</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>251.54701413694218</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>1.2030798845043311</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>29</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>75.3</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>89.2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -796,25 +807,28 @@
         <v>8</v>
       </c>
       <c r="F3" s="3">
+        <v>21835</v>
+      </c>
+      <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>9.1596061369361106</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>0.24861070488446912</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>63</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>49.3</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -831,25 +845,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="3">
+        <v>32601</v>
+      </c>
+      <c r="G4" s="3">
         <v>136</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>417.16511763442838</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>0.78108727348469076</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>59</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>82.2</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>88.9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -866,25 +883,28 @@
         <v>11</v>
       </c>
       <c r="F5" s="3">
+        <v>310248</v>
+      </c>
+      <c r="G5" s="3">
         <v>742</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>239.16350790335474</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>0.4880058715218315</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>798</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>98.8</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>97.3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -901,25 +921,28 @@
         <v>12</v>
       </c>
       <c r="F6" s="3">
+        <v>93247</v>
+      </c>
+      <c r="G6" s="3">
         <v>30</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>32.172616813409547</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>2.3953837947922221</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4404</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>97.8</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -936,25 +959,28 @@
         <v>14</v>
       </c>
       <c r="F7" s="3">
+        <v>15322</v>
+      </c>
+      <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>0.22522522522522523</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>189</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>95.4</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>98.1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -971,25 +997,28 @@
         <v>15</v>
       </c>
       <c r="F8" s="3">
+        <v>63013</v>
+      </c>
+      <c r="G8" s="3">
         <v>8</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>12.695792931617284</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>0.602095756382794</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>377</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>90.1</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>94.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1006,25 +1035,28 @@
         <v>16</v>
       </c>
       <c r="F9" s="3">
+        <v>29041</v>
+      </c>
+      <c r="G9" s="3">
         <v>169</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>581.93588375055958</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>0.23012311586698883</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>228</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>80.099999999999994</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>94.4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1041,25 +1073,28 @@
         <v>17</v>
       </c>
       <c r="F10" s="3">
+        <v>23774</v>
+      </c>
+      <c r="G10" s="3">
         <v>14</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>58.887860688146709</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>1.0874559656915301</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>18</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>70.599999999999994</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>88.2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1076,25 +1111,28 @@
         <v>19</v>
       </c>
       <c r="F11" s="3">
+        <v>46380</v>
+      </c>
+      <c r="G11" s="3">
         <v>17</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>36.653730056058649</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>0.1067586433440092</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>862</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>99</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>99.1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1111,25 +1149,28 @@
         <v>20</v>
       </c>
       <c r="F12" s="3">
+        <v>26237</v>
+      </c>
+      <c r="G12" s="3">
         <v>17</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>64.793993215687763</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>3.0483158055174518E-2</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2159</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>99.8</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>99.7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1146,25 +1187,28 @@
         <v>21</v>
       </c>
       <c r="F13" s="3">
+        <v>52784</v>
+      </c>
+      <c r="G13" s="3">
         <v>5</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>9.4725674446802071</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>0.79083719661848917</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>22</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>43.7</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1181,25 +1225,28 @@
         <v>22</v>
       </c>
       <c r="F14" s="3">
+        <v>32325</v>
+      </c>
+      <c r="G14" s="3">
         <v>53</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>163.95978344934261</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>0.44399340352657624</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>47</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>80.8</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>92.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1216,25 +1263,28 @@
         <v>23</v>
       </c>
       <c r="F15" s="3">
+        <v>45047</v>
+      </c>
+      <c r="G15" s="3">
         <v>130</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>288.58747530357181</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>0.50873092259040287</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>77</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>83.6</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>91.9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1251,25 +1301,28 @@
         <v>13</v>
       </c>
       <c r="F16" s="3">
+        <v>162944</v>
+      </c>
+      <c r="G16" s="3">
         <v>6</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>3.6822466614296938</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>0.71220223626640733</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>566</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>97</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>98.6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1286,25 +1339,28 @@
         <v>24</v>
       </c>
       <c r="F17" s="3">
+        <v>51865</v>
+      </c>
+      <c r="G17" s="3">
         <v>16</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>30.849320350911018</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>0.26109660574412535</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>83</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>63.5</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1321,25 +1377,28 @@
         <v>25</v>
       </c>
       <c r="F18" s="3">
+        <v>44262</v>
+      </c>
+      <c r="G18" s="3">
         <v>3</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>6.7778229632641986</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>0.19350997320631139</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>47</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>38.1</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1356,25 +1415,28 @@
         <v>26</v>
       </c>
       <c r="F19" s="3">
+        <v>78961</v>
+      </c>
+      <c r="G19" s="3">
         <v>6</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>7.5986879598789274</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>0.80003878975950338</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>4950</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <v>99.5</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>99.6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1391,25 +1453,28 @@
         <v>27</v>
       </c>
       <c r="F20" s="3">
+        <v>242983</v>
+      </c>
+      <c r="G20" s="3">
         <v>158</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>65.025125214521182</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>0.54412033878562982</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2054</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>98.4</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>98.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1425,26 +1490,29 @@
       <c r="E21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
+        <v>7905</v>
+      </c>
+      <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>0.22026431718061676</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>19</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>63</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>77.2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1461,25 +1529,28 @@
         <v>29</v>
       </c>
       <c r="F22" s="3">
+        <v>45935</v>
+      </c>
+      <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>0</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>0.55875380968506605</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>273</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>90.7</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>95.7</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1496,25 +1567,28 @@
         <v>30</v>
       </c>
       <c r="F23" s="3">
+        <v>69394</v>
+      </c>
+      <c r="G23" s="3">
         <v>9</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>12.96942098740525</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>0.34264910589998931</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2012</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>99.4</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>98.4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1531,25 +1605,28 @@
         <v>31</v>
       </c>
       <c r="F24" s="3">
+        <v>37647</v>
+      </c>
+      <c r="G24" s="3">
         <v>68</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>180.62528222700348</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <v>0.91976516634050876</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>173</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>83.7</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>94.4</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1566,25 +1643,28 @@
         <v>32</v>
       </c>
       <c r="F25" s="3">
+        <v>24603</v>
+      </c>
+      <c r="G25" s="3">
         <v>17</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>69.097264561232365</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <v>9.7434231893471904E-2</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>3534</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <v>99.8</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>99.1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1601,25 +1681,28 @@
         <v>33</v>
       </c>
       <c r="F26" s="3">
+        <v>25381</v>
+      </c>
+      <c r="G26" s="3">
         <v>137</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>539.773846578149</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>1.2723658051689861</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>80</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>91.9</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>92.6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1636,25 +1719,28 @@
         <v>34</v>
       </c>
       <c r="F27" s="3">
+        <v>137328</v>
+      </c>
+      <c r="G27" s="3">
         <v>10</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>7.281836187813119</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="2">
         <v>0.57691192671189195</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>4359</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>99.4</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>99.6</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1671,25 +1757,28 @@
         <v>35</v>
       </c>
       <c r="F28" s="3">
+        <v>45082</v>
+      </c>
+      <c r="G28" s="3">
         <v>19</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>42.145423894237169</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="2">
         <v>0.39229930984380673</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>25</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28" s="3">
         <v>71.3</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>77.3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1706,25 +1795,28 @@
         <v>36</v>
       </c>
       <c r="F29" s="3">
+        <v>92656</v>
+      </c>
+      <c r="G29" s="3">
         <v>61</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>65.834916249352446</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <v>0.51614554451222117</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>234</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>89.7</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>98.7</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1741,25 +1833,28 @@
         <v>38</v>
       </c>
       <c r="F30" s="3">
+        <v>54195</v>
+      </c>
+      <c r="G30" s="3">
         <v>549</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <v>1013.0085801273181</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <v>0.20440940283253028</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>94</v>
       </c>
-      <c r="J30" s="3">
+      <c r="K30" s="3">
         <v>70.099999999999994</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>83.6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1776,25 +1871,28 @@
         <v>39</v>
       </c>
       <c r="F31" s="3">
+        <v>19010</v>
+      </c>
+      <c r="G31" s="3">
         <v>6</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>31.562335612835348</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="2">
         <v>0.60525818044259505</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>25</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="3">
         <v>25.7</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>95.4</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1811,25 +1909,28 @@
         <v>18</v>
       </c>
       <c r="F32" s="3">
+        <v>141683</v>
+      </c>
+      <c r="G32" s="3">
         <v>41</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>28.937840107846391</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <v>0.89906336383886643</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>501</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>99.3</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>99.4</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1846,25 +1947,28 @@
         <v>40</v>
       </c>
       <c r="F33" s="3">
+        <v>7945</v>
+      </c>
+      <c r="G33" s="3">
         <v>20</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <v>251.73064820641915</v>
       </c>
-      <c r="H33" s="2">
+      <c r="I33" s="2">
         <v>0.36</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>30</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>42.1</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1881,25 +1985,28 @@
         <v>41</v>
       </c>
       <c r="F34" s="3">
+        <v>16296</v>
+      </c>
+      <c r="G34" s="3">
         <v>0</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <v>0</v>
       </c>
-      <c r="H34" s="2">
+      <c r="I34" s="2">
         <v>0.25078369905956116</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>56</v>
       </c>
-      <c r="J34" s="3">
+      <c r="K34" s="3">
         <v>90.6</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>95.6</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1916,25 +2023,28 @@
         <v>42</v>
       </c>
       <c r="F35" s="3">
+        <v>26599</v>
+      </c>
+      <c r="G35" s="3">
         <v>289</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <v>1086.5070115417873</v>
       </c>
-      <c r="H35" s="2">
+      <c r="I35" s="2">
         <v>0.78768349445041186</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>19</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>63.5</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>84.6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1951,25 +2061,28 @@
         <v>43</v>
       </c>
       <c r="F36" s="3">
+        <v>111369</v>
+      </c>
+      <c r="G36" s="3">
         <v>3</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <v>2.6937478113299034</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="2">
         <v>0.48736336419967974</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>2484</v>
       </c>
-      <c r="J36" s="3">
+      <c r="K36" s="3">
         <v>99</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>98.8</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1986,25 +2099,28 @@
         <v>44</v>
       </c>
       <c r="F37" s="3">
+        <v>13635</v>
+      </c>
+      <c r="G37" s="3">
         <v>0</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <v>0</v>
       </c>
-      <c r="H37" s="2">
+      <c r="I37" s="2">
         <v>6.7159167226326394E-2</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>112</v>
       </c>
-      <c r="J37" s="3">
+      <c r="K37" s="3">
         <v>28.5</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2021,25 +2137,28 @@
         <v>45</v>
       </c>
       <c r="F38" s="3">
+        <v>75640</v>
+      </c>
+      <c r="G38" s="3">
         <v>23</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>30.407191961924909</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>1.119682845815922</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>52</v>
       </c>
-      <c r="J38" s="3">
+      <c r="K38" s="3">
         <v>84.7</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>95.9</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2056,25 +2175,28 @@
         <v>37</v>
       </c>
       <c r="F39" s="3">
+        <v>99545</v>
+      </c>
+      <c r="G39" s="3">
         <v>163</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <v>163.74503993168918</v>
       </c>
-      <c r="H39" s="2">
+      <c r="I39" s="2">
         <v>0.30611901638241329</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>56</v>
       </c>
-      <c r="J39" s="3">
+      <c r="K39" s="3">
         <v>74.599999999999994</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>85.8</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2091,25 +2213,28 @@
         <v>46</v>
       </c>
       <c r="F40" s="3">
+        <v>32993</v>
+      </c>
+      <c r="G40" s="3">
         <v>5</v>
       </c>
-      <c r="G40" s="2">
+      <c r="H40" s="2">
         <v>15.154729791167824</v>
       </c>
-      <c r="H40" s="2">
+      <c r="I40" s="2">
         <v>1.6722408026755853</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>24</v>
       </c>
-      <c r="J40" s="3">
+      <c r="K40" s="3">
         <v>31.7</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>76.5</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2126,25 +2251,28 @@
         <v>47</v>
       </c>
       <c r="F41" s="3">
+        <v>45839</v>
+      </c>
+      <c r="G41" s="3">
         <v>37</v>
       </c>
-      <c r="G41" s="2">
+      <c r="H41" s="2">
         <v>80.717293134666988</v>
       </c>
-      <c r="H41" s="2">
+      <c r="I41" s="2">
         <v>0.2638747020769493</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>59</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>62.3</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2161,25 +2289,28 @@
         <v>48</v>
       </c>
       <c r="F42" s="3">
+        <v>62310</v>
+      </c>
+      <c r="G42" s="3">
         <v>9</v>
       </c>
-      <c r="G42" s="2">
+      <c r="H42" s="2">
         <v>14.443909484833895</v>
       </c>
-      <c r="H42" s="2">
+      <c r="I42" s="2">
         <v>0.10405257393209201</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>4110</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>99.7</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>99.6</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2196,25 +2327,28 @@
         <v>49</v>
       </c>
       <c r="F43" s="3">
+        <v>14177</v>
+      </c>
+      <c r="G43" s="3">
         <v>79</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
         <v>557.24060097340771</v>
       </c>
-      <c r="H43" s="2">
+      <c r="I43" s="2">
         <v>0.44923629829290207</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>57</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>82.6</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>94.6</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2231,25 +2365,28 @@
         <v>50</v>
       </c>
       <c r="F44" s="3">
+        <v>30067</v>
+      </c>
+      <c r="G44" s="3">
         <v>13</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H44" s="2">
         <v>43.236771210962182</v>
       </c>
-      <c r="H44" s="2">
+      <c r="I44" s="2">
         <v>0.24283071230342276</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>185</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>88.1</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>93.9</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2266,25 +2403,28 @@
         <v>51</v>
       </c>
       <c r="F45" s="3">
+        <v>62290</v>
+      </c>
+      <c r="G45" s="3">
         <v>7</v>
       </c>
-      <c r="G45" s="2">
+      <c r="H45" s="2">
         <v>11.237758869802537</v>
       </c>
-      <c r="H45" s="2">
+      <c r="I45" s="2">
         <v>0.16607617360496013</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>2176</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>99.4</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>99.5</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2301,25 +2441,28 @@
         <v>52</v>
       </c>
       <c r="F46" s="3">
+        <v>11750</v>
+      </c>
+      <c r="G46" s="3">
         <v>6</v>
       </c>
-      <c r="G46" s="2">
+      <c r="H46" s="2">
         <v>51.063829787234042</v>
       </c>
-      <c r="H46" s="2">
+      <c r="I46" s="2">
         <v>0.41095890410958902</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>20</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>30.3</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>80.8</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2336,25 +2479,28 @@
         <v>53</v>
       </c>
       <c r="F47" s="3">
+        <v>48310</v>
+      </c>
+      <c r="G47" s="3">
         <v>4</v>
       </c>
-      <c r="G47" s="2">
+      <c r="H47" s="2">
         <v>8.2798592423928792</v>
       </c>
-      <c r="H47" s="2">
+      <c r="I47" s="2">
         <v>0.28769147033667675</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>381</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>74.3</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>99.3</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2371,25 +2517,28 @@
         <v>54</v>
       </c>
       <c r="F48" s="3">
+        <v>56053</v>
+      </c>
+      <c r="G48" s="3">
         <v>63</v>
       </c>
-      <c r="G48" s="2">
+      <c r="H48" s="2">
         <v>112.39362745972562</v>
       </c>
-      <c r="H48" s="2">
+      <c r="I48" s="2">
         <v>0.40357766143106455</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>42</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>43.5</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>88.1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2406,25 +2555,28 @@
         <v>55</v>
       </c>
       <c r="F49" s="3">
+        <v>49604</v>
+      </c>
+      <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="2">
+      <c r="H49" s="2">
         <v>0</v>
       </c>
-      <c r="H49" s="2">
+      <c r="I49" s="2">
         <v>0.17633722394827442</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>245</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>96.7</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>97.4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2441,25 +2593,28 @@
         <v>56</v>
       </c>
       <c r="F50" s="3">
+        <v>23467</v>
+      </c>
+      <c r="G50" s="3">
         <v>107</v>
       </c>
-      <c r="G50" s="2">
+      <c r="H50" s="2">
         <v>455.95943239442624</v>
       </c>
-      <c r="H50" s="2">
+      <c r="I50" s="2">
         <v>0.9508285791904374</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>165</v>
       </c>
-      <c r="J50" s="3">
+      <c r="K50" s="3">
         <v>81</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>98.1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2476,25 +2631,28 @@
         <v>57</v>
       </c>
       <c r="F51" s="3">
+        <v>30981</v>
+      </c>
+      <c r="G51" s="3">
         <v>4</v>
       </c>
-      <c r="G51" s="2">
+      <c r="H51" s="2">
         <v>12.911139085245797</v>
       </c>
-      <c r="H51" s="2">
+      <c r="I51" s="2">
         <v>0.49015317286652077</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>16</v>
       </c>
-      <c r="J51" s="3">
+      <c r="K51" s="3">
         <v>63.9</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>78.8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2511,25 +2669,28 @@
         <v>58</v>
       </c>
       <c r="F52" s="3">
+        <v>40473</v>
+      </c>
+      <c r="G52" s="3">
         <v>5</v>
       </c>
-      <c r="G52" s="2">
+      <c r="H52" s="2">
         <v>12.353914955649445</v>
       </c>
-      <c r="H52" s="2">
+      <c r="I52" s="2">
         <v>0.11686793922867161</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>1063</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>97.5</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>95.4</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2546,25 +2707,28 @@
         <v>59</v>
       </c>
       <c r="F53" s="3">
+        <v>62480</v>
+      </c>
+      <c r="G53" s="3">
         <v>1</v>
       </c>
-      <c r="G53" s="2">
+      <c r="H53" s="2">
         <v>1.6005121638924455</v>
       </c>
-      <c r="H53" s="2">
+      <c r="I53" s="2">
         <v>0.30755711775043937</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>151</v>
       </c>
-      <c r="J53" s="3">
+      <c r="K53" s="3">
         <v>95.6</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>98.2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2581,25 +2745,28 @@
         <v>60</v>
       </c>
       <c r="F54" s="3">
+        <v>19828</v>
+      </c>
+      <c r="G54" s="3">
         <v>52</v>
       </c>
-      <c r="G54" s="2">
+      <c r="H54" s="2">
         <v>262.25539640911842</v>
       </c>
-      <c r="H54" s="2">
+      <c r="I54" s="2">
         <v>0.69996818326439714</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>41</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>70.599999999999994</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>84.7</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2616,25 +2783,28 @@
         <v>61</v>
       </c>
       <c r="F55" s="3">
+        <v>142997</v>
+      </c>
+      <c r="G55" s="3">
         <v>36</v>
       </c>
-      <c r="G55" s="2">
+      <c r="H55" s="2">
         <v>25.175353329090818</v>
       </c>
-      <c r="H55" s="2">
+      <c r="I55" s="2">
         <v>0.3604531410916581</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>75</v>
       </c>
-      <c r="J55" s="3">
+      <c r="K55" s="3">
         <v>61.9</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>88.9</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2651,25 +2821,28 @@
         <v>62</v>
       </c>
       <c r="F56" s="3">
+        <v>33541</v>
+      </c>
+      <c r="G56" s="3">
         <v>16</v>
       </c>
-      <c r="G56" s="2">
+      <c r="H56" s="2">
         <v>47.702811484451864</v>
       </c>
-      <c r="H56" s="2">
+      <c r="I56" s="2">
         <v>0.72118180760730488</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>454</v>
       </c>
-      <c r="J56" s="3">
+      <c r="K56" s="3">
         <v>97.3</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>99.2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2686,25 +2859,28 @@
         <v>63</v>
       </c>
       <c r="F57" s="3">
+        <v>148593</v>
+      </c>
+      <c r="G57" s="3">
         <v>764</v>
       </c>
-      <c r="G57" s="2">
+      <c r="H57" s="2">
         <v>514.15611771752378</v>
       </c>
-      <c r="H57" s="2">
+      <c r="I57" s="2">
         <v>0.45736927065499189</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>61</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>59.2</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>75.5</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2721,25 +2897,28 @@
         <v>9</v>
       </c>
       <c r="F58" s="3">
+        <v>138222</v>
+      </c>
+      <c r="G58" s="3">
         <v>510</v>
       </c>
-      <c r="G58" s="2">
+      <c r="H58" s="2">
         <v>368.97165429526416</v>
       </c>
-      <c r="H58" s="2">
+      <c r="I58" s="2">
         <v>0.88031322772986664</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>75</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>74.900000000000006</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>93.6</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2756,25 +2935,28 @@
         <v>64</v>
       </c>
       <c r="F59" s="3">
+        <v>37668</v>
+      </c>
+      <c r="G59" s="3">
         <v>30</v>
       </c>
-      <c r="G59" s="2">
+      <c r="H59" s="2">
         <v>79.643198470850592</v>
       </c>
-      <c r="H59" s="2">
+      <c r="I59" s="2">
         <v>0.26358843846573349</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>68</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>55.1</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>92.6</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2791,25 +2973,28 @@
         <v>65</v>
       </c>
       <c r="F60" s="3">
+        <v>197218</v>
+      </c>
+      <c r="G60" s="3">
         <v>320</v>
       </c>
-      <c r="G60" s="2">
+      <c r="H60" s="2">
         <v>162.25699479763509</v>
       </c>
-      <c r="H60" s="2">
+      <c r="I60" s="2">
         <v>0.63752276867030966</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>58</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>65.599999999999994</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>91.9</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2826,25 +3011,28 @@
         <v>66</v>
       </c>
       <c r="F61" s="3">
+        <v>22996</v>
+      </c>
+      <c r="G61" s="3">
         <v>5</v>
       </c>
-      <c r="G61" s="2">
+      <c r="H61" s="2">
         <v>21.742911810749696</v>
       </c>
-      <c r="H61" s="2">
+      <c r="I61" s="2">
         <v>0.12980691221807561</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>852</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>99.4</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2861,25 +3049,28 @@
         <v>7</v>
       </c>
       <c r="F62" s="3">
+        <v>344851</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="2">
+      <c r="H62" s="2">
         <v>28.998031033692811</v>
       </c>
-      <c r="H62" s="2">
+      <c r="I62" s="2">
         <v>1.4072533860239635</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>7728</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>99.5</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>99.7</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2896,25 +3087,28 @@
         <v>67</v>
       </c>
       <c r="F63" s="3">
+        <v>7070</v>
+      </c>
+      <c r="G63" s="3">
         <v>27</v>
       </c>
-      <c r="G63" s="2">
+      <c r="H63" s="2">
         <v>381.8953323903819</v>
       </c>
-      <c r="H63" s="2">
+      <c r="I63" s="2">
         <v>0.20316944331572531</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>56</v>
       </c>
-      <c r="J63" s="3">
+      <c r="K63" s="3">
         <v>72.400000000000006</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>93.7</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2931,25 +3125,28 @@
         <v>68</v>
       </c>
       <c r="F64" s="3">
+        <v>31000</v>
+      </c>
+      <c r="G64" s="3">
         <v>16</v>
       </c>
-      <c r="G64" s="2">
+      <c r="H64" s="2">
         <v>51.612903225806456</v>
       </c>
-      <c r="H64" s="2">
+      <c r="I64" s="2">
         <v>0.23255813953488372</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>4116</v>
       </c>
-      <c r="J64" s="3">
+      <c r="K64" s="3">
         <v>99.8</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>99.9</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2966,25 +3163,28 @@
         <v>69</v>
       </c>
       <c r="F65" s="3">
+        <v>54587</v>
+      </c>
+      <c r="G65" s="3">
         <v>26</v>
       </c>
-      <c r="G65" s="2">
+      <c r="H65" s="2">
         <v>47.630388187663726</v>
       </c>
-      <c r="H65" s="2">
+      <c r="I65" s="2">
         <v>0.22017045454545453</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>1128</v>
       </c>
-      <c r="J65" s="3">
+      <c r="K65" s="3">
         <v>99.4</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>99.5</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3001,25 +3201,28 @@
         <v>70</v>
       </c>
       <c r="F66" s="3">
+        <v>92874</v>
+      </c>
+      <c r="G66" s="3">
         <v>34</v>
       </c>
-      <c r="G66" s="2">
+      <c r="H66" s="2">
         <v>36.608738721278293</v>
       </c>
-      <c r="H66" s="2">
+      <c r="I66" s="2">
         <v>0.31261630070710827</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>91</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>86.9</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>94.9</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3036,25 +3239,28 @@
         <v>71</v>
       </c>
       <c r="F67" s="3">
+        <v>59701</v>
+      </c>
+      <c r="G67" s="3">
         <v>36</v>
       </c>
-      <c r="G67" s="2">
+      <c r="H67" s="2">
         <v>60.300497479104202</v>
       </c>
-      <c r="H67" s="2">
+      <c r="I67" s="2">
         <v>0.3415991902834008</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>972</v>
       </c>
-      <c r="J67" s="3">
+      <c r="K67" s="3">
         <v>98.7</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>96.1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3071,25 +3277,28 @@
         <v>72</v>
       </c>
       <c r="F68" s="3">
+        <v>42208</v>
+      </c>
+      <c r="G68" s="3">
         <v>16</v>
       </c>
-      <c r="G68" s="2">
+      <c r="H68" s="2">
         <v>37.907505686125852</v>
       </c>
-      <c r="H68" s="2">
+      <c r="I68" s="2">
         <v>0.24891675117544024</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>793</v>
       </c>
-      <c r="J68" s="3">
+      <c r="K68" s="3">
         <v>98.7</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>97.4</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3106,25 +3315,28 @@
         <v>73</v>
       </c>
       <c r="F69" s="3">
+        <v>67758</v>
+      </c>
+      <c r="G69" s="3">
         <v>98</v>
       </c>
-      <c r="G69" s="2">
+      <c r="H69" s="2">
         <v>144.63236813365211</v>
       </c>
-      <c r="H69" s="2">
+      <c r="I69" s="2">
         <v>0.51913770347558286</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>51</v>
       </c>
-      <c r="J69" s="3">
+      <c r="K69" s="3">
         <v>68.599999999999994</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>88.5</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3141,25 +3353,28 @@
         <v>74</v>
       </c>
       <c r="F70" s="3">
+        <v>48581</v>
+      </c>
+      <c r="G70" s="3">
         <v>14</v>
       </c>
-      <c r="G70" s="2">
+      <c r="H70" s="2">
         <v>28.817850600028816</v>
       </c>
-      <c r="H70" s="2">
+      <c r="I70" s="2">
         <v>0.74110269565925568</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>1955</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>99.3</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3176,25 +3391,28 @@
         <v>75</v>
       </c>
       <c r="F71" s="3">
+        <v>80895</v>
+      </c>
+      <c r="G71" s="3">
         <v>1816</v>
       </c>
-      <c r="G71" s="2">
+      <c r="H71" s="2">
         <v>2244.8853452005687</v>
       </c>
-      <c r="H71" s="2">
+      <c r="I71" s="2">
         <v>1.0090448057719454</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>37</v>
       </c>
-      <c r="J71" s="3">
+      <c r="K71" s="3">
         <v>57.6</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>59.4</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3211,25 +3429,28 @@
         <v>76</v>
       </c>
       <c r="F72" s="3">
+        <v>64501</v>
+      </c>
+      <c r="G72" s="3">
         <v>148</v>
       </c>
-      <c r="G72" s="2">
+      <c r="H72" s="2">
         <v>229.4538069177222</v>
       </c>
-      <c r="H72" s="2">
+      <c r="I72" s="2">
         <v>0.39247751430907607</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>74</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>59.1</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>82.2</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3246,25 +3467,28 @@
         <v>77</v>
       </c>
       <c r="F73" s="3">
+        <v>42351</v>
+      </c>
+      <c r="G73" s="3">
         <v>77</v>
       </c>
-      <c r="G73" s="2">
+      <c r="H73" s="2">
         <v>181.81388869212063</v>
       </c>
-      <c r="H73" s="2">
+      <c r="I73" s="2">
         <v>0.49290815813298461</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>15</v>
       </c>
-      <c r="J73" s="3">
+      <c r="K73" s="3">
         <v>32.5</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>55.7</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3280,26 +3504,29 @@
       <c r="E74" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="1">
+        <v>18399</v>
+      </c>
+      <c r="G74" s="3">
         <v>0</v>
       </c>
-      <c r="G74" s="2">
+      <c r="H74" s="2">
         <v>0</v>
       </c>
-      <c r="H74" s="2">
+      <c r="I74" s="2">
         <v>0.29611565929280614</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>61</v>
       </c>
-      <c r="J74" s="3">
+      <c r="K74" s="3">
         <v>64.8</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>85.4</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3316,25 +3543,28 @@
         <v>79</v>
       </c>
       <c r="F75" s="3">
+        <v>84215</v>
+      </c>
+      <c r="G75" s="3">
         <v>15</v>
       </c>
-      <c r="G75" s="2">
+      <c r="H75" s="2">
         <v>17.811553761206437</v>
       </c>
-      <c r="H75" s="2">
+      <c r="I75" s="2">
         <v>1.1982248520710059</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>10333</v>
       </c>
-      <c r="J75" s="3">
+      <c r="K75" s="3">
         <v>99</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>99.9</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3351,25 +3581,28 @@
         <v>80</v>
       </c>
       <c r="F76" s="3">
+        <v>21619</v>
+      </c>
+      <c r="G76" s="3">
         <v>11</v>
       </c>
-      <c r="G76" s="2">
+      <c r="H76" s="2">
         <v>50.881169341782694</v>
       </c>
-      <c r="H76" s="2">
+      <c r="I76" s="2">
         <v>0.28232636928289101</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>33</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>74.3</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>91.6</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3386,25 +3619,28 @@
         <v>81</v>
       </c>
       <c r="F77" s="3">
+        <v>73656</v>
+      </c>
+      <c r="G77" s="3">
         <v>656</v>
       </c>
-      <c r="G77" s="2">
+      <c r="H77" s="2">
         <v>890.62669707830992</v>
       </c>
-      <c r="H77" s="2">
+      <c r="I77" s="2">
         <v>0.21107042860219685</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>44</v>
       </c>
-      <c r="J77" s="3">
+      <c r="K77" s="3">
         <v>80</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>91.6</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3421,25 +3657,28 @@
         <v>82</v>
       </c>
       <c r="F78" s="3">
+        <v>6790</v>
+      </c>
+      <c r="G78" s="3">
         <v>5</v>
       </c>
-      <c r="G78" s="2">
+      <c r="H78" s="2">
         <v>73.637702503681879</v>
       </c>
-      <c r="H78" s="2">
+      <c r="I78" s="2">
         <v>0.46315789473684216</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>16</v>
       </c>
-      <c r="J78" s="3">
+      <c r="K78" s="3">
         <v>35.200000000000003</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>85.7</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3456,25 +3695,28 @@
         <v>83</v>
       </c>
       <c r="F79" s="3">
+        <v>53371</v>
+      </c>
+      <c r="G79" s="3">
         <v>26</v>
       </c>
-      <c r="G79" s="2">
+      <c r="H79" s="2">
         <v>48.715594611305768</v>
       </c>
-      <c r="H79" s="2">
+      <c r="I79" s="2">
         <v>0.31600331051087205</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>33</v>
       </c>
-      <c r="J79" s="3">
+      <c r="K79" s="3">
         <v>26.8</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>91.1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3491,25 +3733,28 @@
         <v>84</v>
       </c>
       <c r="F80" s="3">
+        <v>21945</v>
+      </c>
+      <c r="G80" s="3">
         <v>2</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>9.113693324219641</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>0.14232342999466288</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>182</v>
       </c>
-      <c r="J80" s="3">
+      <c r="K80" s="3">
         <v>93.7</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>99.8</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3526,25 +3771,28 @@
         <v>85</v>
       </c>
       <c r="F81" s="3">
+        <v>70972</v>
+      </c>
+      <c r="G81" s="3">
         <v>5</v>
       </c>
-      <c r="G81" s="2">
+      <c r="H81" s="2">
         <v>7.0450318435439332</v>
       </c>
-      <c r="H81" s="2">
+      <c r="I81" s="2">
         <v>0.38546255506607929</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>319</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>99.1</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>97.9</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3561,25 +3809,33 @@
         <v>86</v>
       </c>
       <c r="F82" s="3">
+        <v>14204</v>
+      </c>
+      <c r="G82" s="3">
         <v>0</v>
       </c>
-      <c r="G82" s="2">
+      <c r="H82" s="2">
         <v>0</v>
       </c>
-      <c r="H82" s="2">
+      <c r="I82" s="2">
         <v>0.30572540300166762</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>91</v>
       </c>
-      <c r="J82" s="3">
+      <c r="K82" s="3">
         <v>89.3</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>99.5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L82" xr:uid="{770AAFF7-15FD-4B33-BA7E-1D2397FD38BC}">
+    <sortState ref="A2:L82">
+      <sortCondition ref="E1:E82"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>